--- a/manually_labeled_data/manually_labeled_reddit.xlsx
+++ b/manually_labeled_data/manually_labeled_reddit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A06F10-B438-444A-B540-ABA0D3C663AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE11D3F5-D9C9-4983-8E75-D7E7524E560D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="377">
   <si>
     <t>Is my battery okay? I think it runs out quickly. The condition of the battery is 99%</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,13 +448,6 @@
   </si>
   <si>
     <t xml:space="preserve">When I first got my iPad, I was taking notes in portrait. I then realized that taking notes in landscape was so much better, so I’ve been doing it in landscape and still do to this day.
-</t>
-  </si>
-  <si>
-    <t>Anyone have two iPads? Looking to buy a second ipad and want ideas if it seems worth it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have a iPad Pro 12.9 (2018) and an iPad Mini 6. I use them at the same time when studying: I have a textbook opened at the Pro 12.9 and have a OneNote opened on the Mini 6. I previously thought that it was overkill to have two iPads, but I soon realized that it is more effective for me to have two devices rather than using splitscreen on the bigger iPad. I appreciate the screen estate that the bigger iPad brings to the textbook that I've been reading :)
 </t>
   </si>
   <si>
@@ -1661,6 +1654,27 @@
   </si>
   <si>
     <t>older games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anyone have two iPads? Looking to buy a second ipad and want ideas if it seems worth it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a iPad Pro 12.9 (2018) and an iPad Mini 6. I use them at the same time when studying: I have a textbook opened at the Pro 12.9 and have a OneNote opened on the Mini 6. I previously thought that it was overkill to have two iPads, but I soon realized that it is more effective for me to have two devices rather than using splitscreen on the bigger iPad. I appreciate the screen estate that the bigger iPad brings to the textbook that I've been reading :)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a iPad Pro 12.9 (2018) and an iPad Mini 6. I use them at the same time when studying: I have a textbook opened at the Pro 12.9 and have a OneNote opened on the Mini 7. I previously thought that it was overkill to have two iPads, but I soon realized that it is more effective for me to have two devices rather than using splitscreen on the bigger iPad. I appreciate the screen estate that the bigger iPad brings to the textbook that I've been reading :)
+</t>
+  </si>
+  <si>
+    <t>OneNote</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2054,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2642,597 +2656,601 @@
     </row>
     <row r="42" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="8">
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="228" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="8">
+    <row r="70" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+    <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="285" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="B76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="6" t="s">
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="B77" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="C77" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>163</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B78" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="C78" t="s">
         <v>165</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" t="s">
-        <v>170</v>
       </c>
       <c r="D78">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>171</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B81" t="s">
         <v>172</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="C81" t="s">
         <v>173</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>175</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" s="11" t="s">
+      <c r="B83" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C81" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="C83" t="s">
         <v>177</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>178</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B84" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="C84" t="s">
         <v>180</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" t="s">
-        <v>185</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3240,139 +3258,139 @@
     </row>
     <row r="85" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="11" t="s">
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>192</v>
       </c>
-      <c r="C87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B90" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" t="s">
         <v>165</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C89" t="s">
-        <v>196</v>
-      </c>
-      <c r="D89">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" t="s">
-        <v>167</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>194</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>198</v>
       </c>
-      <c r="C91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="11" t="s">
+      <c r="B94" t="s">
         <v>199</v>
       </c>
-      <c r="C92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="C94" t="s">
         <v>200</v>
-      </c>
-      <c r="B93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" t="s">
-        <v>56</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3380,125 +3398,125 @@
     </row>
     <row r="95" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C95" t="s">
-        <v>205</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>206</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C96" t="s">
-        <v>208</v>
-      </c>
       <c r="D96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>211</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" s="11" t="s">
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>212</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B100" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>214</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99">
+      <c r="C100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>214</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="C101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>217</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B103" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="C103" t="s">
         <v>219</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C102" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>222</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" t="s">
-        <v>224</v>
       </c>
       <c r="D103">
         <v>-1</v>
@@ -3506,55 +3524,55 @@
     </row>
     <row r="104" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s">
         <v>222</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" t="s">
-        <v>225</v>
       </c>
       <c r="D104">
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" t="s">
         <v>229</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C106" t="s">
-        <v>231</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>194</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C107" t="s">
-        <v>232</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3562,545 +3580,545 @@
     </row>
     <row r="108" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>233</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B110" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="C110" t="s">
         <v>235</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>236</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B111" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="C111" t="s">
         <v>238</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>239</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B112" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="C112" t="s">
         <v>241</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>242</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B113" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="C113" t="s">
         <v>244</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>245</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B114" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="C114" t="s">
         <v>247</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="171" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>250</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C114" t="s">
-        <v>252</v>
-      </c>
       <c r="D114">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
         <v>250</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="D115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="171" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>253</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B117" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>257</v>
-      </c>
-      <c r="B117" t="s">
-        <v>258</v>
-      </c>
       <c r="C117" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>255</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>255</v>
-      </c>
-      <c r="B119" s="11" t="s">
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>261</v>
       </c>
-      <c r="C119" t="s">
-        <v>243</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>247</v>
-      </c>
-      <c r="B120" s="11" t="s">
+      <c r="B122" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C120" t="s">
-        <v>249</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="C122" t="s">
         <v>263</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C121" t="s">
-        <v>265</v>
-      </c>
-      <c r="D121">
+      <c r="D122">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="285" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122" t="s">
-        <v>267</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="285" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" t="s">
+        <v>265</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>261</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" t="s">
+        <v>267</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C123" t="s">
-        <v>269</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="C125" t="s">
         <v>241</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C124" t="s">
-        <v>243</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="171" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>271</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C125" t="s">
-        <v>273</v>
-      </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" t="s">
         <v>271</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="171" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" t="s">
+        <v>241</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>275</v>
       </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B129" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C129" t="s">
+        <v>277</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" t="s">
+        <v>244</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" t="s">
+        <v>244</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>239</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" t="s">
         <v>241</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>282</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C133" t="s">
+        <v>284</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>255</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136" t="s">
+        <v>286</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>277</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C128" t="s">
-        <v>279</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>280</v>
-      </c>
-      <c r="B129" s="11" t="s">
+      <c r="C137" t="s">
+        <v>247</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>242</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" t="s">
+        <v>244</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C140" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C129" t="s">
-        <v>246</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>244</v>
-      </c>
-      <c r="B130" t="s">
-        <v>282</v>
-      </c>
-      <c r="C130" t="s">
-        <v>246</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>241</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" t="s">
-        <v>243</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>284</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" t="s">
-        <v>286</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>287</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C133" t="s">
-        <v>237</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>255</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" t="s">
-        <v>240</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>257</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C135" t="s">
-        <v>288</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>247</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" t="s">
-        <v>249</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>250</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C137" t="s">
-        <v>289</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C138" t="s">
-        <v>246</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>290</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C139" t="s">
-        <v>291</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="C142" t="s">
         <v>292</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" t="s">
-        <v>246</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>293</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C141" t="s">
-        <v>294</v>
-      </c>
-      <c r="D141">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>295</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C142" t="s">
-        <v>297</v>
       </c>
       <c r="D142">
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B144" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" t="s">
+        <v>298</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s">
+        <v>265</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C144" t="s">
-        <v>267</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="C146" t="s">
         <v>302</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C145" t="s">
-        <v>304</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>305</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C146" t="s">
-        <v>307</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4108,69 +4126,69 @@
     </row>
     <row r="147" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>303</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" t="s">
         <v>305</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" t="s">
+        <v>305</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>308</v>
       </c>
-      <c r="C147" t="s">
-        <v>307</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>305</v>
-      </c>
-      <c r="B148" s="11" t="s">
+      <c r="B150" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C148" t="s">
-        <v>307</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="C150" t="s">
         <v>310</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C149" t="s">
-        <v>312</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="C151" t="s">
         <v>310</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C150" t="s">
-        <v>312</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>314</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C151" t="s">
-        <v>316</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -4178,83 +4196,83 @@
     </row>
     <row r="152" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>312</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" t="s">
         <v>314</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C153" t="s">
         <v>315</v>
       </c>
-      <c r="C152" t="s">
-        <v>317</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>318</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C153" t="s">
-        <v>320</v>
-      </c>
       <c r="D153">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D154">
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>319</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" t="s">
+        <v>321</v>
+      </c>
+      <c r="D155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" t="s">
         <v>324</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C155" t="s">
-        <v>326</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>295</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C156" t="s">
-        <v>328</v>
-      </c>
       <c r="D156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -4262,153 +4280,153 @@
     </row>
     <row r="158" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C158" t="s">
-        <v>331</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C160" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>332</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C161" t="s">
+        <v>334</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>335</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C162" t="s">
+        <v>336</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>337</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B163" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="C163" t="s">
         <v>339</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>340</v>
       </c>
-      <c r="C162" t="s">
+      <c r="B164" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="C164" t="s">
         <v>342</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>343</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B165" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="C165" t="s">
         <v>345</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C164" t="s">
-        <v>347</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>334</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C165" t="s">
-        <v>349</v>
-      </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B166" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C166" t="s">
+        <v>347</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C167" t="s">
+        <v>349</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>312</v>
+      </c>
+      <c r="B168" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C166" t="s">
-        <v>351</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="C168" t="s">
         <v>314</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C167" t="s">
-        <v>316</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>339</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C168" t="s">
-        <v>316</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4416,141 +4434,155 @@
     </row>
     <row r="169" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>337</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" t="s">
+        <v>314</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C170" t="s">
         <v>310</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C169" t="s">
-        <v>312</v>
-      </c>
-      <c r="D169">
+      <c r="D170">
         <v>-1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="171" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C171" t="s">
+        <v>315</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>353</v>
+      </c>
+      <c r="B172" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C170" t="s">
-        <v>317</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="C172" t="s">
         <v>355</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>356</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B173" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="C173" t="s">
         <v>358</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C174" t="s">
         <v>360</v>
       </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>358</v>
-      </c>
-      <c r="B173" s="11" t="s">
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C175" t="s">
         <v>362</v>
       </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>358</v>
-      </c>
-      <c r="B174" s="11" t="s">
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C176" t="s">
         <v>364</v>
       </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>358</v>
-      </c>
-      <c r="B175" s="11" t="s">
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>365</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B177" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="C177" t="s">
         <v>367</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>368</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B178" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C178" t="s">
+        <v>362</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>369</v>
       </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="B179" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C177" t="s">
-        <v>364</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="C179" t="s">
         <v>371</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C178" t="s">
-        <v>373</v>
-      </c>
-      <c r="D178">
+      <c r="D179">
         <v>0</v>
       </c>
     </row>

--- a/manually_labeled_data/manually_labeled_reddit.xlsx
+++ b/manually_labeled_data/manually_labeled_reddit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE11D3F5-D9C9-4983-8E75-D7E7524E560D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC23F42-16DD-4EFC-84FF-F52969E11939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2679,7 @@
         <v>374</v>
       </c>
       <c r="D43" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="114" x14ac:dyDescent="0.2">
